--- a/finalexam.xlsx
+++ b/finalexam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BECC681-A81E-45A5-A758-71FAB29C7480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4BECC681-A81E-45A5-A758-71FAB29C7480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2780CC1-93F4-427B-9715-06719C5539E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>OrderDate</t>
   </si>
@@ -119,9 +119,6 @@
     <t>3- Formula for the total price of cities: =SI(L16="Boston";K2+K3+K6+K7+K8+K12+K13;K5+K10+K11)</t>
   </si>
   <si>
-    <t>4- Formula for the sales in West for carrots: =</t>
-  </si>
-  <si>
     <t>West:</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Whole Wheat</t>
+  </si>
+  <si>
+    <t>4- Formula for the sales in West for carrots: =SI((ET(D3="Boston";I3&gt;20));N16;N17)</t>
   </si>
 </sst>
 </file>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BEDA24-086D-43E0-89D0-CCAD04F2982F}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18">
         <f>K9</f>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3471,7 +3471,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20">
         <f>MAX(I2:I13)</f>
@@ -3491,7 +3491,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
         <f>MIN(I2:I13)</f>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3513,7 +3513,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" ref="M22:M23">IF((OR(G2="Carrot",G2="Arrowroot")),K2+K6+K7+K9:K10+K12,K3:K5+K8+K11+K13)</f>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3570,7 +3570,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25">
         <f>AVERAGE(K3,K8)</f>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3611,7 +3611,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27">
         <f>AVERAGE(K3:K6,K8,K12:K13)</f>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3633,7 +3633,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M28">
         <f>SUM(K2,K7,K9:K10,)</f>
@@ -3684,14 +3684,14 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="14">
@@ -3704,7 +3704,7 @@
         <v>58.41</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="14">
@@ -3713,14 +3713,14 @@
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="14">
@@ -3733,7 +3733,7 @@
         <v>303.63</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="14">
@@ -3742,7 +3742,7 @@
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
@@ -3762,7 +3762,7 @@
         <v>78.48</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="14">
@@ -3800,7 +3800,7 @@
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
@@ -3820,7 +3820,7 @@
         <v>82.84</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="14">
@@ -3829,14 +3829,14 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="14">
@@ -3849,7 +3849,7 @@
         <v>95.58</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="14">
@@ -3858,14 +3858,14 @@
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="14">
@@ -3878,7 +3878,7 @@
         <v>520.01</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="14">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
@@ -3907,7 +3907,7 @@
         <v>57.97</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="14">
@@ -3923,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="14">
